--- a/biology/Histoire de la zoologie et de la botanique/Jeremy_Thomas_(entomologiste)/Jeremy_Thomas_(entomologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jeremy_Thomas_(entomologiste)/Jeremy_Thomas_(entomologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeremy Thomas est un entomologiste et professeur d'écologie.
 </t>
@@ -511,9 +523,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jeremy Thomas appartient au département de zoologie de l'Université d'Oxford[1] et il est professeur associé au NERC (centre d'écologie et d'hydrologie).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeremy Thomas appartient au département de zoologie de l'Université d'Oxford et il est professeur associé au NERC (centre d'écologie et d'hydrologie).
 Ses travaux portent sur les insectes, l'évolution des populations, et en particulier les interactions entre les lépidoptères et les plantes hôtes de leurs chenilles ainsi que les cas de papillons myrmecophiles. Ces travaux trouveraient leur application pour la conservation et des prédictions en cas de changement climatique.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Thomas, JA, Simcox, DJ, Clarke, RT (2009) Successful Conservation of a Threatened Maculinea Butterfly. Science 325, 80-83.
 Barbero, F, Thomas, JA, Bonelli, S, Balletto, E, Schönrogge, K (2009) Queen ants make distinctive sounds that are mimicked by a butterfly social parasite. Science 323, 782-785.
